--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/6 AUDITORIA ACTIVOS FIJOS/8 PRUEBA DE TRASLADOS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/6 AUDITORIA ACTIVOS FIJOS/8 PRUEBA DE TRASLADOS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\6 AUDITORIA ACTIVOS FIJOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\6 AUDITORIA ACTIVOS FIJOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590F3647-32A1-4A14-93C1-A697DCD202F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -19,12 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -67,9 +62,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">                                   EMPRESA, YYY, S. A.</t>
-  </si>
-  <si>
     <t xml:space="preserve">                              Auditor </t>
   </si>
   <si>
@@ -115,9 +107,6 @@
     <t>Oficio solicitud y deautorizacion traslado a oficina de mantenimiento, firmados</t>
   </si>
   <si>
-    <t xml:space="preserve">                           DEL 01 DE ENERO AL 31 DE DICIEMBRE DE 2022</t>
-  </si>
-  <si>
     <t>Hecho por:</t>
   </si>
   <si>
@@ -128,12 +117,18 @@
   </si>
   <si>
     <t>F-7</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,13 +144,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -242,6 +230,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -317,16 +312,11 @@
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -334,8 +324,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -375,34 +365,43 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1407,14 +1406,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1422,11 +1421,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,138 +1440,144 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="35" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="33" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="I5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="E6" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="I6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="D7" s="25"/>
+      <c r="E7" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="I7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="34"/>
-    </row>
-    <row r="6" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="34"/>
-    </row>
-    <row r="7" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D7" s="28" t="s">
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="E8" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="I8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="3"/>
-      <c r="I7" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="34"/>
-    </row>
-    <row r="8" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="E8" s="4" t="s">
+      <c r="J8" s="31"/>
+    </row>
+    <row r="10" spans="1:22" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="I8" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="34"/>
-    </row>
-    <row r="10" spans="1:22" s="23" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="29" t="s">
+      <c r="C10" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="31" t="s">
+      <c r="G10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="29" t="s">
+      <c r="I10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+    </row>
+    <row r="11" spans="1:22" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="22">
+        <v>100</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="D11" s="21">
+        <v>43662</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1</v>
+      </c>
+      <c r="F11" s="24">
+        <v>1</v>
+      </c>
+      <c r="G11" s="24">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-    </row>
-    <row r="11" spans="1:22" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="25">
-        <v>100</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="24">
-        <v>43662</v>
-      </c>
-      <c r="E11" s="25">
-        <v>1</v>
-      </c>
-      <c r="F11" s="27">
-        <v>1</v>
-      </c>
-      <c r="G11" s="27">
-        <v>1</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-    </row>
-    <row r="12" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="17"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+    </row>
+    <row r="12" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="1"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1588,15 +1593,15 @@
       <c r="U12"/>
       <c r="V12"/>
     </row>
-    <row r="13" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
       <c r="I13" s="1"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1612,15 +1617,15 @@
       <c r="U13"/>
       <c r="V13"/>
     </row>
-    <row r="14" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="1"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1636,15 +1641,15 @@
       <c r="U14"/>
       <c r="V14"/>
     </row>
-    <row r="15" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
       <c r="I15" s="1"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1660,15 +1665,15 @@
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="1"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1684,15 +1689,15 @@
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="1"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1708,15 +1713,15 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="1"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1732,15 +1737,15 @@
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="1"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1757,32 +1762,32 @@
       <c r="V19"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1799,64 +1804,68 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="G37" s="8" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="G37" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>17</v>
+      <c r="C38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B27:I29"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
